--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>824137.7832079881</v>
+        <v>819240.5466200414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371835</v>
+        <v>23767730.23371834</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737298</v>
+        <v>8186089.907737299</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5851039.914894341</v>
+        <v>5851039.914894342</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>7.704624305650491</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>20.9145371622791</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1433946664671</v>
+        <v>83.31712807729311</v>
       </c>
       <c r="U12" t="n">
         <v>195.3021387078687</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>104.7364554533221</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>29.11948557459273</v>
       </c>
       <c r="T13" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>261.1173104655394</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>91.71586537097951</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.26980621371689</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.5581826279492</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.09829870417605</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
@@ -1700,10 +1700,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.1433946664671</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.67788773845257</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8355178356165</v>
+        <v>130.8839344705653</v>
       </c>
       <c r="T16" t="n">
         <v>233.0607131231338</v>
@@ -1824,16 +1824,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>186.1653657257018</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>35.79903765501248</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H18" t="n">
-        <v>36.49685192153576</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -1982,10 +1982,10 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>122.6592214093338</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -2004,19 +2004,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.9843946285849</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9179208068699</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.41975539321092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>119.6034576154403</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>364.2437018649088</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.16629866905296</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3021387078687</v>
+        <v>136.2552171055027</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>39.23948435715092</v>
       </c>
       <c r="T22" t="n">
         <v>233.0607131231338</v>
@@ -2298,16 +2298,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.41975539321134</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>328.5969480707425</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.5056876845219</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>352.9484316005106</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>104.7777180703237</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2484,19 +2484,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>167.8355178356165</v>
@@ -2532,13 +2532,13 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>26.32558953386414</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>154.2759618895452</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>112.3624840095053</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
         <v>285.9311321812619</v>
@@ -2608,7 +2608,7 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.319061736559</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>308.3089331451864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>91.45099415140884</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9179208068699</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>18.44166389375805</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>31.77421402191772</v>
+        <v>208.333430281227</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0607131231338</v>
+        <v>187.9116486126216</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>251.6705122973939</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
-        <v>254.319061736559</v>
+        <v>156.0444617367957</v>
       </c>
       <c r="V32" t="n">
-        <v>293.3793283647612</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>120.1190422179641</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.35255397088748</v>
+        <v>8.515531034041114</v>
       </c>
       <c r="S34" t="n">
         <v>167.8355178356165</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>61.61112265695649</v>
       </c>
       <c r="G35" t="n">
-        <v>351.7394568581288</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>132.4485275312834</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
@@ -3353,16 +3353,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>18.95509069175642</v>
       </c>
       <c r="G36" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>163.5276089841899</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.6212795048259</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>152.7246820511554</v>
       </c>
       <c r="C38" t="n">
-        <v>74.85574290699921</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,10 +3590,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>96.77908078376589</v>
       </c>
       <c r="F39" t="n">
-        <v>32.06857741426669</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>104.7777180703237</v>
@@ -3644,13 +3644,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,16 +3669,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9179208068699</v>
+        <v>261.5474270719569</v>
       </c>
       <c r="V40" t="n">
-        <v>119.275237078739</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>83.0897289977582</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
         <v>3.166568202456219</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>228.7349895879973</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3821,13 +3821,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>18.33336474127697</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3875,10 +3875,10 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3021387078687</v>
+        <v>173.2669067999024</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>87.77980746467355</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>86.37808034979749</v>
@@ -3948,22 +3948,22 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>32.77521748872125</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1626537843631</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>160.0200584559479</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>26.81299587523856</v>
       </c>
       <c r="E45" t="n">
-        <v>38.82163886919934</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
@@ -4073,7 +4073,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H45" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U45" t="n">
         <v>195.3021387078687</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.8538309487557</v>
       </c>
       <c r="H46" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>167.8355178356165</v>
@@ -4191,19 +4191,19 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>167.9047736936754</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.50234517234</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="C11" t="n">
-        <v>1566.50234517234</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="D11" t="n">
-        <v>1566.50234517234</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="E11" t="n">
-        <v>1152.162129689236</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F11" t="n">
-        <v>731.1317176429238</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G11" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H11" t="n">
         <v>35.74099050576839</v>
@@ -5041,22 +5041,22 @@
         <v>35.74099050576839</v>
       </c>
       <c r="J11" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064784</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P11" t="n">
         <v>1601.546999092374</v>
@@ -5068,25 +5068,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1574.284793965926</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1574.284793965926</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="V11" t="n">
-        <v>1566.50234517234</v>
+        <v>881.4281807667744</v>
       </c>
       <c r="W11" t="n">
-        <v>1566.50234517234</v>
+        <v>860.3023856533612</v>
       </c>
       <c r="X11" t="n">
-        <v>1566.50234517234</v>
+        <v>860.3023856533612</v>
       </c>
       <c r="Y11" t="n">
-        <v>1566.50234517234</v>
+        <v>860.3023856533612</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>35.74099050576839</v>
       </c>
       <c r="I12" t="n">
-        <v>54.34778796170229</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J12" t="n">
-        <v>110.3534157295929</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K12" t="n">
-        <v>552.6481732384767</v>
+        <v>563.6655423722059</v>
       </c>
       <c r="L12" t="n">
-        <v>742.680534778799</v>
+        <v>753.6979039125282</v>
       </c>
       <c r="M12" t="n">
-        <v>972.2788690586896</v>
+        <v>983.2962381924187</v>
       </c>
       <c r="N12" t="n">
         <v>1224.80685838041</v>
@@ -5150,16 +5150,16 @@
         <v>1700.495187579394</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.804889936498</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.530002352792</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V12" t="n">
-        <v>1134.818475345826</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W12" t="n">
-        <v>921.5853070821544</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X12" t="n">
         <v>815.7909076343543</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.4654888334607</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="C13" t="n">
-        <v>200.3721163951771</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="D13" t="n">
-        <v>200.3721163951771</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="E13" t="n">
-        <v>200.3721163951771</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F13" t="n">
         <v>35.74099050576839</v>
@@ -5205,16 +5205,16 @@
         <v>381.5865293505955</v>
       </c>
       <c r="L13" t="n">
-        <v>782.4625254678897</v>
+        <v>468.4834142328665</v>
       </c>
       <c r="M13" t="n">
-        <v>1220.369060868969</v>
+        <v>889.389693214169</v>
       </c>
       <c r="N13" t="n">
-        <v>1369.513844597221</v>
+        <v>1315.336568651599</v>
       </c>
       <c r="O13" t="n">
-        <v>1448.030505855774</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P13" t="n">
         <v>1768.392458898499</v>
@@ -5223,28 +5223,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S13" t="n">
-        <v>1575.748442655587</v>
+        <v>1757.635903495901</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.333580915048</v>
+        <v>1522.221041755362</v>
       </c>
       <c r="U13" t="n">
-        <v>1076.578721858947</v>
+        <v>1239.475667202968</v>
       </c>
       <c r="V13" t="n">
-        <v>1076.578721858947</v>
+        <v>965.5899221424904</v>
       </c>
       <c r="W13" t="n">
-        <v>797.5090573678217</v>
+        <v>686.5202576513648</v>
       </c>
       <c r="X13" t="n">
-        <v>559.165195227505</v>
+        <v>448.1763955110481</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.165195227505</v>
+        <v>223.4406968998128</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>420.4011579347559</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="C14" t="n">
-        <v>420.4011579347559</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7588696812413</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="E14" t="n">
-        <v>327.7588696812413</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="F14" t="n">
-        <v>327.7588696812413</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G14" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H14" t="n">
         <v>38.93954424562315</v>
       </c>
       <c r="I14" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J14" t="n">
-        <v>142.5703854689896</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446586</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064781</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N14" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P14" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R14" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S14" t="n">
         <v>1700.918407900826</v>
       </c>
       <c r="T14" t="n">
-        <v>1488.153676578332</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U14" t="n">
-        <v>1231.265735430293</v>
+        <v>1444.030466752787</v>
       </c>
       <c r="V14" t="n">
-        <v>1231.265735430293</v>
+        <v>1094.192912089268</v>
       </c>
       <c r="W14" t="n">
-        <v>1231.265735430293</v>
+        <v>846.1543437782079</v>
       </c>
       <c r="X14" t="n">
-        <v>830.6223375992454</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="Y14" t="n">
-        <v>830.6223375992454</v>
+        <v>445.5109459471605</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C15" t="n">
-        <v>547.5285987132485</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D15" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E15" t="n">
-        <v>310.1386249249689</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F15" t="n">
-        <v>201.1787451074734</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G15" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H15" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I15" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J15" t="n">
-        <v>91.74661827365898</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>219.1218605877236</v>
+        <v>563.6655423722059</v>
       </c>
       <c r="L15" t="n">
-        <v>409.1542221280458</v>
+        <v>753.6979039125282</v>
       </c>
       <c r="M15" t="n">
-        <v>638.7525564079364</v>
+        <v>983.2962381924187</v>
       </c>
       <c r="N15" t="n">
-        <v>880.2631765959272</v>
+        <v>1224.80685838041</v>
       </c>
       <c r="O15" t="n">
-        <v>1322.557934104811</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.010322681674</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q15" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R15" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S15" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V15" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W15" t="n">
-        <v>921.5853070821535</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X15" t="n">
-        <v>745.2593252210463</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y15" t="n">
-        <v>745.2593252210463</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.3344798741149</v>
+        <v>206.8343629440519</v>
       </c>
       <c r="C16" t="n">
-        <v>336.2411074358314</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="D16" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="E16" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F16" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H16" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I16" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J16" t="n">
-        <v>51.86344281542365</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K16" t="n">
-        <v>110.3049721335449</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L16" t="n">
-        <v>396.3460155817197</v>
+        <v>711.4207750004609</v>
       </c>
       <c r="M16" t="n">
-        <v>834.2525509827985</v>
+        <v>1149.32731040154</v>
       </c>
       <c r="N16" t="n">
-        <v>928.1651249726425</v>
+        <v>1243.239884391384</v>
       </c>
       <c r="O16" t="n">
-        <v>1321.756545649936</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P16" t="n">
-        <v>1642.118498692661</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q16" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R16" t="n">
-        <v>1747.980951815234</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S16" t="n">
-        <v>1578.450125718652</v>
+        <v>1654.843530873707</v>
       </c>
       <c r="T16" t="n">
-        <v>1343.035263978112</v>
+        <v>1419.428669133168</v>
       </c>
       <c r="U16" t="n">
-        <v>1060.289889425719</v>
+        <v>1136.683294580774</v>
       </c>
       <c r="V16" t="n">
-        <v>786.4041443652405</v>
+        <v>1136.683294580774</v>
       </c>
       <c r="W16" t="n">
-        <v>507.3344798741149</v>
+        <v>857.6136300896483</v>
       </c>
       <c r="X16" t="n">
-        <v>507.3344798741149</v>
+        <v>619.2697679493316</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.3344798741149</v>
+        <v>394.5340693380963</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>933.6365519530543</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="C17" t="n">
-        <v>933.6365519530543</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="D17" t="n">
-        <v>745.590727987699</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="E17" t="n">
-        <v>745.590727987699</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F17" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G17" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H17" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J17" t="n">
         <v>142.5703854689898</v>
@@ -5524,7 +5524,7 @@
         <v>562.2973247064784</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N17" t="n">
         <v>1126.349039004049</v>
@@ -5539,10 +5539,10 @@
         <v>1740.697478824117</v>
       </c>
       <c r="R17" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T17" t="n">
         <v>1574.284793965925</v>
@@ -5551,16 +5551,16 @@
         <v>1317.396852817886</v>
       </c>
       <c r="V17" t="n">
-        <v>1317.396852817886</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="W17" t="n">
-        <v>933.6365519530543</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="X17" t="n">
-        <v>933.6365519530543</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="Y17" t="n">
-        <v>933.6365519530543</v>
+        <v>1281.236208721914</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>658.7875012129608</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C18" t="n">
-        <v>524.7924299619065</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D18" t="n">
-        <v>407.8952721812989</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E18" t="n">
-        <v>287.4024561736269</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F18" t="n">
-        <v>178.4425763561315</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G18" t="n">
-        <v>72.60649749721863</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I18" t="n">
-        <v>54.34778796170227</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J18" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>238.1546982993008</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>428.1870598396231</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>870.4818173485066</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N18" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R18" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V18" t="n">
-        <v>1134.818475345825</v>
+        <v>1311.186136618046</v>
       </c>
       <c r="W18" t="n">
-        <v>1134.818475345825</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X18" t="n">
-        <v>958.4924934847174</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y18" t="n">
-        <v>799.0905338485475</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.74099050576837</v>
+        <v>525.3051726500605</v>
       </c>
       <c r="C19" t="n">
-        <v>35.74099050576837</v>
+        <v>354.211800211777</v>
       </c>
       <c r="D19" t="n">
-        <v>35.74099050576837</v>
+        <v>354.211800211777</v>
       </c>
       <c r="E19" t="n">
-        <v>35.74099050576837</v>
+        <v>193.3009850800965</v>
       </c>
       <c r="F19" t="n">
-        <v>35.74099050576837</v>
+        <v>193.3009850800965</v>
       </c>
       <c r="G19" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H19" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J19" t="n">
-        <v>116.86480644676</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K19" t="n">
-        <v>175.3063357648813</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>576.1823318821755</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M19" t="n">
-        <v>669.1225177689689</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N19" t="n">
-        <v>1054.43908517848</v>
+        <v>1301.349586792113</v>
       </c>
       <c r="O19" t="n">
-        <v>1448.030505855774</v>
+        <v>1694.941007469406</v>
       </c>
       <c r="P19" t="n">
         <v>1768.392458898498</v>
       </c>
       <c r="Q19" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915047</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.588206362653</v>
+        <v>1504.304150736025</v>
       </c>
       <c r="V19" t="n">
-        <v>783.7024613021752</v>
+        <v>1230.418405675547</v>
       </c>
       <c r="W19" t="n">
-        <v>504.6327968110495</v>
+        <v>951.3487411844214</v>
       </c>
       <c r="X19" t="n">
-        <v>266.2889346707329</v>
+        <v>713.0048790441049</v>
       </c>
       <c r="Y19" t="n">
-        <v>223.4406968998128</v>
+        <v>713.0048790441049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>566.6771545414279</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="C20" t="n">
-        <v>156.552563854698</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="D20" t="n">
-        <v>156.552563854698</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="E20" t="n">
-        <v>156.552563854698</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576838</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J20" t="n">
         <v>142.5703854689898</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L20" t="n">
         <v>562.2973247064785</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5770,10 +5770,10 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
@@ -5782,22 +5782,22 @@
         <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.918407900826</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U20" t="n">
-        <v>1700.918407900826</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="V20" t="n">
-        <v>1351.080853237307</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="W20" t="n">
-        <v>967.3205523724753</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="X20" t="n">
-        <v>566.6771545414279</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="Y20" t="n">
-        <v>566.6771545414279</v>
+        <v>863.3428042536182</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.9621144040152</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C21" t="n">
-        <v>378.9670431529609</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D21" t="n">
-        <v>262.0698853723533</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E21" t="n">
-        <v>141.5770693646812</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F21" t="n">
-        <v>141.5770693646812</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G21" t="n">
-        <v>35.74099050576838</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J21" t="n">
-        <v>91.74661827365901</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K21" t="n">
-        <v>219.1218605877237</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L21" t="n">
-        <v>661.4166180966074</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M21" t="n">
-        <v>891.0149523764979</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N21" t="n">
-        <v>1132.525572564489</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O21" t="n">
-        <v>1344.461590051556</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P21" t="n">
-        <v>1506.729036865754</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579393</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936497</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352791</v>
+        <v>1408.173357506697</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.818475345825</v>
+        <v>1194.461830499731</v>
       </c>
       <c r="W21" t="n">
-        <v>921.5853070821539</v>
+        <v>981.2286622360594</v>
       </c>
       <c r="X21" t="n">
-        <v>745.2593252210468</v>
+        <v>981.2286622360594</v>
       </c>
       <c r="Y21" t="n">
-        <v>585.8573655848768</v>
+        <v>821.8267025998895</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.74099050576838</v>
+        <v>537.74837671408</v>
       </c>
       <c r="C22" t="n">
-        <v>35.74099050576838</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="D22" t="n">
-        <v>35.74099050576838</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="E22" t="n">
-        <v>35.74099050576838</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576838</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
         <v>116.8648064467601</v>
@@ -5922,40 +5922,40 @@
         <v>1220.369060868969</v>
       </c>
       <c r="N22" t="n">
-        <v>1504.137367864501</v>
+        <v>1314.281634858813</v>
       </c>
       <c r="O22" t="n">
-        <v>1582.654029123055</v>
+        <v>1707.873055536107</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1747.413682503418</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915047</v>
+        <v>1511.998820762879</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362654</v>
+        <v>1229.253446210485</v>
       </c>
       <c r="V22" t="n">
-        <v>783.7024613021756</v>
+        <v>1229.253446210485</v>
       </c>
       <c r="W22" t="n">
-        <v>504.63279681105</v>
+        <v>950.1837817193597</v>
       </c>
       <c r="X22" t="n">
-        <v>266.2889346707333</v>
+        <v>950.1837817193597</v>
       </c>
       <c r="Y22" t="n">
-        <v>223.4406968998128</v>
+        <v>725.4480831081244</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>851.5920228696536</v>
+        <v>1617.613383394351</v>
       </c>
       <c r="C23" t="n">
-        <v>851.5920228696536</v>
+        <v>1285.697274231984</v>
       </c>
       <c r="D23" t="n">
-        <v>447.1280929627141</v>
+        <v>1285.697274231984</v>
       </c>
       <c r="E23" t="n">
-        <v>447.1280929627141</v>
+        <v>871.3570587488813</v>
       </c>
       <c r="F23" t="n">
-        <v>447.1280929627141</v>
+        <v>450.3266467025688</v>
       </c>
       <c r="G23" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H23" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
         <v>147.3860862243982</v>
@@ -6007,7 +6007,7 @@
         <v>1395.085414945227</v>
       </c>
       <c r="P23" t="n">
-        <v>1606.362699847782</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q23" t="n">
         <v>1981.482516594539</v>
@@ -6016,25 +6016,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S23" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T23" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U23" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V23" t="n">
-        <v>1591.865891007728</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="W23" t="n">
-        <v>1208.105590142897</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="X23" t="n">
-        <v>851.5920228696536</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="Y23" t="n">
-        <v>851.5920228696536</v>
+        <v>2027.83456305884</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
         <v>435.4471416880494</v>
@@ -6056,37 +6056,37 @@
         <v>314.9543256803775</v>
       </c>
       <c r="F24" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
         <v>100.158367003969</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L24" t="n">
-        <v>725.8266157001951</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M24" t="n">
-        <v>955.4249499800857</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N24" t="n">
-        <v>1457.314004337149</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O24" t="n">
-        <v>1669.250021824216</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1831.517468638414</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
         <v>1928.049576833459</v>
@@ -6095,16 +6095,16 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U24" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>624.6781824690863</v>
+        <v>1003.975009531232</v>
       </c>
       <c r="C25" t="n">
-        <v>453.5848100308029</v>
+        <v>832.8816370929485</v>
       </c>
       <c r="D25" t="n">
-        <v>294.0901653537129</v>
+        <v>673.3869924158585</v>
       </c>
       <c r="E25" t="n">
-        <v>294.0901653537129</v>
+        <v>512.476177284178</v>
       </c>
       <c r="F25" t="n">
-        <v>294.0901653537129</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="G25" t="n">
-        <v>127.8072774730935</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
-        <v>56.67914357083211</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K25" t="n">
         <v>321.4008664746675</v>
       </c>
       <c r="L25" t="n">
-        <v>408.2977513569385</v>
+        <v>722.2768625919616</v>
       </c>
       <c r="M25" t="n">
-        <v>743.003287305635</v>
+        <v>815.217048478755</v>
       </c>
       <c r="N25" t="n">
-        <v>1168.950162743065</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O25" t="n">
         <v>1562.541583420358</v>
       </c>
       <c r="P25" t="n">
-        <v>1882.903536463083</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.118618685469</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U25" t="n">
-        <v>1554.527114105808</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.527114105808</v>
+        <v>1467.054570282784</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.457449614682</v>
+        <v>1467.054570282784</v>
       </c>
       <c r="X25" t="n">
-        <v>1037.113587474366</v>
+        <v>1228.710708142467</v>
       </c>
       <c r="Y25" t="n">
-        <v>812.3778888631307</v>
+        <v>1003.975009531232</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>750.4064287431074</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="C26" t="n">
-        <v>750.4064287431074</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="D26" t="n">
-        <v>750.4064287431074</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="E26" t="n">
-        <v>750.4064287431074</v>
+        <v>1156.977830444645</v>
       </c>
       <c r="F26" t="n">
-        <v>329.3760166967949</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="G26" t="n">
         <v>329.3760166967949</v>
       </c>
       <c r="H26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K26" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L26" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M26" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N26" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O26" t="n">
-        <v>1395.085414945227</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P26" t="n">
-        <v>1606.362699847782</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q26" t="n">
         <v>1981.482516594539</v>
@@ -6256,22 +6256,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T26" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U26" t="n">
-        <v>1472.050773200715</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="V26" t="n">
-        <v>1472.050773200715</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="W26" t="n">
-        <v>1472.050773200715</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="X26" t="n">
-        <v>1472.050773200715</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="Y26" t="n">
-        <v>1160.627608407597</v>
+        <v>1684.815504523208</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197114</v>
+        <v>686.3393707197113</v>
       </c>
       <c r="C27" t="n">
-        <v>552.3442994686571</v>
+        <v>552.3442994686569</v>
       </c>
       <c r="D27" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880493</v>
       </c>
       <c r="E27" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803773</v>
       </c>
       <c r="F27" t="n">
-        <v>205.9944458628822</v>
+        <v>205.9944458628819</v>
       </c>
       <c r="G27" t="n">
-        <v>100.1583670039693</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I27" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>643.5682571633449</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>885.0788773513359</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1097.014894838403</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1598.903949195466</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
-        <v>1928.049576833459</v>
+        <v>1928.049576833458</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S27" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T27" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123213</v>
+        <v>1589.315040123212</v>
       </c>
       <c r="V27" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W27" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.044362991468</v>
+        <v>986.0443629914679</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.642403355298</v>
+        <v>826.6424033552979</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.6821359702361</v>
+        <v>1003.975009531232</v>
       </c>
       <c r="C28" t="n">
-        <v>520.6821359702361</v>
+        <v>832.8816370929485</v>
       </c>
       <c r="D28" t="n">
-        <v>361.1874912931461</v>
+        <v>673.3869924158585</v>
       </c>
       <c r="E28" t="n">
-        <v>268.8127497260665</v>
+        <v>512.476177284178</v>
       </c>
       <c r="F28" t="n">
-        <v>268.8127497260665</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8127497260665</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H28" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67914357083211</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K28" t="n">
-        <v>321.4008664746675</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L28" t="n">
-        <v>650.0631014188416</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M28" t="n">
-        <v>743.003287305635</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N28" t="n">
-        <v>1168.950162743065</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O28" t="n">
-        <v>1562.541583420358</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P28" t="n">
-        <v>1882.903536463083</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T28" t="n">
-        <v>1581.118618685469</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.373244133075</v>
+        <v>1575.558362409864</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.487499072597</v>
+        <v>1301.672617349386</v>
       </c>
       <c r="W28" t="n">
-        <v>745.4178345814714</v>
+        <v>1022.60295285826</v>
       </c>
       <c r="X28" t="n">
-        <v>745.4178345814714</v>
+        <v>1003.975009531232</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.6821359702361</v>
+        <v>1003.975009531232</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>490.1906261628396</v>
+        <v>1360.725442246311</v>
       </c>
       <c r="C29" t="n">
-        <v>490.1906261628396</v>
+        <v>1360.725442246311</v>
       </c>
       <c r="D29" t="n">
-        <v>490.1906261628396</v>
+        <v>1360.725442246311</v>
       </c>
       <c r="E29" t="n">
-        <v>75.85041067973634</v>
+        <v>946.385226763208</v>
       </c>
       <c r="F29" t="n">
-        <v>43.75524500103158</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="G29" t="n">
-        <v>43.75524500103158</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H29" t="n">
-        <v>43.75524500103158</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I29" t="n">
         <v>40.55669126117681</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K29" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O29" t="n">
         <v>1631.054751960239</v>
@@ -6490,25 +6490,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U29" t="n">
-        <v>1684.815504523208</v>
+        <v>1770.946621910801</v>
       </c>
       <c r="V29" t="n">
-        <v>1684.815504523208</v>
+        <v>1770.946621910801</v>
       </c>
       <c r="W29" t="n">
-        <v>1301.055203658377</v>
+        <v>1770.946621910801</v>
       </c>
       <c r="X29" t="n">
-        <v>900.4118058273291</v>
+        <v>1770.946621910801</v>
       </c>
       <c r="Y29" t="n">
-        <v>900.4118058273291</v>
+        <v>1770.946621910801</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880497</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803777</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9944458628819</v>
+        <v>205.9944458628822</v>
       </c>
       <c r="G30" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H30" t="n">
         <v>40.55669126117681</v>
@@ -6542,52 +6542,52 @@
         <v>59.16348871711071</v>
       </c>
       <c r="J30" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>242.5443587990661</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L30" t="n">
-        <v>432.5767203393883</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M30" t="n">
-        <v>662.1750546192789</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N30" t="n">
-        <v>1059.621739147057</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.557756634124</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1433.825203448322</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
-        <v>1928.049576833458</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S30" t="n">
-        <v>1941.280225349814</v>
+        <v>1941.280225349815</v>
       </c>
       <c r="T30" t="n">
-        <v>1786.589927706918</v>
+        <v>1786.589927706919</v>
       </c>
       <c r="U30" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
-        <v>1375.603513116246</v>
+        <v>1375.603513116247</v>
       </c>
       <c r="W30" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>352.6555359524334</v>
+        <v>702.0587221465785</v>
       </c>
       <c r="C31" t="n">
-        <v>181.5621635141499</v>
+        <v>530.965349708295</v>
       </c>
       <c r="D31" t="n">
-        <v>181.5621635141499</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="E31" t="n">
-        <v>181.5621635141499</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="F31" t="n">
-        <v>181.5621635141499</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G31" t="n">
-        <v>181.5621635141499</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H31" t="n">
         <v>40.55669126117681</v>
@@ -6624,22 +6624,22 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>344.4738272281219</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L31" t="n">
-        <v>431.370712110393</v>
+        <v>565.9942353776742</v>
       </c>
       <c r="M31" t="n">
-        <v>869.2772475114718</v>
+        <v>1003.900770778753</v>
       </c>
       <c r="N31" t="n">
-        <v>1295.224122948901</v>
+        <v>1429.847646216183</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.815543626195</v>
+        <v>1823.439066893476</v>
       </c>
       <c r="P31" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463083</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
@@ -6651,22 +6651,22 @@
         <v>1816.533480426008</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.118618685469</v>
+        <v>1626.723734352653</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.373244133075</v>
+        <v>1626.723734352653</v>
       </c>
       <c r="V31" t="n">
-        <v>1044.160605448839</v>
+        <v>1352.837989292175</v>
       </c>
       <c r="W31" t="n">
-        <v>765.0909409577131</v>
+        <v>1352.837989292175</v>
       </c>
       <c r="X31" t="n">
-        <v>765.0909409577131</v>
+        <v>1114.494127151858</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.3552423464778</v>
+        <v>889.7584285406228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450.6812819479067</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="C32" t="n">
-        <v>40.55669126117681</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="D32" t="n">
-        <v>40.55669126117681</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="E32" t="n">
-        <v>40.55669126117681</v>
+        <v>1156.977830444645</v>
       </c>
       <c r="F32" t="n">
-        <v>40.55669126117681</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="G32" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K32" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L32" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M32" t="n">
-        <v>954.9223303095777</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N32" t="n">
-        <v>1240.13840969833</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O32" t="n">
-        <v>1504.059084884098</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P32" t="n">
-        <v>1715.336369786654</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q32" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>1815.069831736347</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U32" t="n">
-        <v>1558.181890588307</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="V32" t="n">
-        <v>1261.839134664306</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="W32" t="n">
-        <v>1261.839134664306</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="X32" t="n">
-        <v>1261.839134664306</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="Y32" t="n">
-        <v>860.9024616123961</v>
+        <v>1571.318045927748</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
         <v>100.158367003969</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M33" t="n">
-        <v>643.5682571633449</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N33" t="n">
-        <v>885.0788773513359</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1386.967931708399</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1549.235378522597</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6812,7 +6812,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
         <v>1375.603513116246</v>
@@ -6821,10 +6821,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>332.9824295761917</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="C34" t="n">
-        <v>161.8890571379083</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="D34" t="n">
-        <v>161.8890571379083</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="E34" t="n">
-        <v>161.8890571379083</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="F34" t="n">
-        <v>161.8890571379083</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="G34" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="H34" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1206728889534</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>515.9966690062475</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M34" t="n">
-        <v>953.9032044073265</v>
+        <v>880.2184121100915</v>
       </c>
       <c r="N34" t="n">
-        <v>1379.850079844756</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O34" t="n">
         <v>1562.541583420358</v>
       </c>
       <c r="P34" t="n">
-        <v>1882.903536463083</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.06430652259</v>
+        <v>2019.233016559809</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.533480426008</v>
+        <v>1849.702190463226</v>
       </c>
       <c r="T34" t="n">
-        <v>1581.118618685469</v>
+        <v>1614.287328722687</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.373244133075</v>
+        <v>1331.541954170293</v>
       </c>
       <c r="V34" t="n">
-        <v>1024.487499072597</v>
+        <v>1057.656209109815</v>
       </c>
       <c r="W34" t="n">
-        <v>745.4178345814714</v>
+        <v>778.5865446186897</v>
       </c>
       <c r="X34" t="n">
-        <v>745.4178345814714</v>
+        <v>540.2426824783731</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.6821359702361</v>
+        <v>315.5069838671378</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1094.192912089266</v>
+        <v>796.5637286120275</v>
       </c>
       <c r="C35" t="n">
-        <v>1094.192912089266</v>
+        <v>796.5637286120275</v>
       </c>
       <c r="D35" t="n">
-        <v>1094.192912089266</v>
+        <v>796.5637286120275</v>
       </c>
       <c r="E35" t="n">
-        <v>679.8526966061631</v>
+        <v>796.5637286120275</v>
       </c>
       <c r="F35" t="n">
-        <v>679.8526966061631</v>
+        <v>734.3302713827785</v>
       </c>
       <c r="G35" t="n">
-        <v>324.5603159413865</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562312</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
@@ -6955,34 +6955,34 @@
         <v>1390.269714189817</v>
       </c>
       <c r="P35" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092372</v>
       </c>
       <c r="Q35" t="n">
         <v>1740.697478824116</v>
       </c>
       <c r="R35" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S35" t="n">
-        <v>1700.918407900825</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="T35" t="n">
-        <v>1700.918407900825</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="U35" t="n">
-        <v>1444.030466752786</v>
+        <v>1530.161584140378</v>
       </c>
       <c r="V35" t="n">
-        <v>1094.192912089266</v>
+        <v>1180.324029476859</v>
       </c>
       <c r="W35" t="n">
-        <v>1094.192912089266</v>
+        <v>796.5637286120275</v>
       </c>
       <c r="X35" t="n">
-        <v>1094.192912089266</v>
+        <v>796.5637286120275</v>
       </c>
       <c r="Y35" t="n">
-        <v>1094.192912089266</v>
+        <v>796.5637286120275</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>452.0709741391353</v>
+        <v>532.1086706583145</v>
       </c>
       <c r="C36" t="n">
-        <v>318.075902888081</v>
+        <v>398.1135994072602</v>
       </c>
       <c r="D36" t="n">
-        <v>201.1787451074734</v>
+        <v>281.2164416266526</v>
       </c>
       <c r="E36" t="n">
-        <v>201.1787451074734</v>
+        <v>160.7236256189806</v>
       </c>
       <c r="F36" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G36" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J36" t="n">
-        <v>323.4758792142289</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K36" t="n">
-        <v>450.8511215282936</v>
+        <v>462.7902645623569</v>
       </c>
       <c r="L36" t="n">
-        <v>640.8834830686159</v>
+        <v>652.8226261026791</v>
       </c>
       <c r="M36" t="n">
-        <v>870.4818173485064</v>
+        <v>882.4209603825697</v>
       </c>
       <c r="N36" t="n">
-        <v>1312.77657485739</v>
+        <v>1123.931580570561</v>
       </c>
       <c r="O36" t="n">
-        <v>1524.712592344457</v>
+        <v>1335.867598057628</v>
       </c>
       <c r="P36" t="n">
-        <v>1686.980039158655</v>
+        <v>1498.135044871826</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540018</v>
+        <v>1775.234255540017</v>
       </c>
       <c r="R36" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579392</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936496</v>
+        <v>1632.359227645522</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061816</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345824</v>
+        <v>1221.37281305485</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821532</v>
+        <v>1008.139644791178</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210461</v>
+        <v>831.8136629300711</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.8573655848761</v>
+        <v>672.4117032939012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>619.6268901770577</v>
+        <v>206.8343629440519</v>
       </c>
       <c r="C37" t="n">
-        <v>448.5335177387743</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="D37" t="n">
-        <v>448.5335177387743</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="E37" t="n">
-        <v>287.6227026070937</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="F37" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="G37" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="H37" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542367</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K37" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L37" t="n">
-        <v>511.1809682508391</v>
+        <v>197.201857015816</v>
       </c>
       <c r="M37" t="n">
-        <v>949.087503651918</v>
+        <v>635.1083924168948</v>
       </c>
       <c r="N37" t="n">
-        <v>1054.439085178479</v>
+        <v>1061.055267854324</v>
       </c>
       <c r="O37" t="n">
-        <v>1448.030505855773</v>
+        <v>1454.646688531619</v>
       </c>
       <c r="P37" t="n">
-        <v>1768.392458898498</v>
+        <v>1768.392458898497</v>
       </c>
       <c r="Q37" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="R37" t="n">
         <v>1745.279268752168</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655586</v>
+        <v>1575.748442655585</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.333580915047</v>
+        <v>1575.748442655585</v>
       </c>
       <c r="U37" t="n">
-        <v>1057.588206362653</v>
+        <v>1410.569039641252</v>
       </c>
       <c r="V37" t="n">
-        <v>1057.588206362653</v>
+        <v>1136.683294580774</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.588206362653</v>
+        <v>857.6136300896483</v>
       </c>
       <c r="X37" t="n">
-        <v>819.2443442223364</v>
+        <v>619.2697679493316</v>
       </c>
       <c r="Y37" t="n">
-        <v>619.6268901770577</v>
+        <v>394.5340693380963</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>515.8167819349293</v>
+        <v>1163.129497210657</v>
       </c>
       <c r="C38" t="n">
-        <v>440.2049204127078</v>
+        <v>1163.129497210657</v>
       </c>
       <c r="D38" t="n">
-        <v>35.74099050576839</v>
+        <v>1163.129497210657</v>
       </c>
       <c r="E38" t="n">
-        <v>35.74099050576839</v>
+        <v>748.7892817275537</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576839</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576839</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562312</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J38" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446593</v>
+        <v>323.2290557446576</v>
       </c>
       <c r="L38" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064772</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152976</v>
+        <v>841.132959615296</v>
       </c>
       <c r="N38" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004048</v>
       </c>
       <c r="O38" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189817</v>
       </c>
       <c r="P38" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092372</v>
       </c>
       <c r="Q38" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824116</v>
       </c>
       <c r="R38" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="T38" t="n">
-        <v>1574.284793965926</v>
+        <v>1574.284793965924</v>
       </c>
       <c r="U38" t="n">
-        <v>1317.396852817887</v>
+        <v>1317.396852817885</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.396852817887</v>
+        <v>1317.396852817885</v>
       </c>
       <c r="W38" t="n">
-        <v>1317.396852817887</v>
+        <v>1317.396852817885</v>
       </c>
       <c r="X38" t="n">
-        <v>916.7534549868392</v>
+        <v>1317.396852817885</v>
       </c>
       <c r="Y38" t="n">
-        <v>515.8167819349293</v>
+        <v>1317.396852817885</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.9562925854606</v>
+        <v>658.7875012129599</v>
       </c>
       <c r="C39" t="n">
-        <v>470.9612213344063</v>
+        <v>524.7924299619056</v>
       </c>
       <c r="D39" t="n">
-        <v>354.0640635537987</v>
+        <v>407.895272181298</v>
       </c>
       <c r="E39" t="n">
-        <v>233.5712475461267</v>
+        <v>310.1386249249688</v>
       </c>
       <c r="F39" t="n">
         <v>201.1787451074734</v>
       </c>
       <c r="G39" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856056</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I39" t="n">
-        <v>54.34778796170229</v>
+        <v>54.34778796170225</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7286580436576</v>
+        <v>651.6352588491854</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7610195839799</v>
+        <v>841.6676203895078</v>
       </c>
       <c r="M39" t="n">
-        <v>657.3593538638704</v>
+        <v>1071.265954669398</v>
       </c>
       <c r="N39" t="n">
-        <v>1099.654111372754</v>
+        <v>1312.776574857389</v>
       </c>
       <c r="O39" t="n">
-        <v>1311.590128859822</v>
+        <v>1524.712592344457</v>
       </c>
       <c r="P39" t="n">
-        <v>1686.980039158656</v>
+        <v>1686.980039158655</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.234255540019</v>
+        <v>1775.234255540017</v>
       </c>
       <c r="R39" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579392</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936496</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352792</v>
+        <v>1348.53000235279</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345826</v>
+        <v>1134.818475345824</v>
       </c>
       <c r="W39" t="n">
-        <v>921.5853070821544</v>
+        <v>1134.818475345824</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210472</v>
+        <v>958.4924934847165</v>
       </c>
       <c r="Y39" t="n">
-        <v>745.2593252210472</v>
+        <v>799.0905338485466</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>838.2484936441431</v>
+        <v>691.870948642231</v>
       </c>
       <c r="C40" t="n">
-        <v>667.1551212058596</v>
+        <v>520.7775762039475</v>
       </c>
       <c r="D40" t="n">
-        <v>507.6604765287696</v>
+        <v>361.2829315268576</v>
       </c>
       <c r="E40" t="n">
-        <v>507.6604765287696</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0293506393609</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="G40" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J40" t="n">
-        <v>51.86344281542368</v>
+        <v>75.71464607487462</v>
       </c>
       <c r="K40" t="n">
-        <v>316.5851657192591</v>
+        <v>340.43636897871</v>
       </c>
       <c r="L40" t="n">
-        <v>717.4611618365533</v>
+        <v>741.3123650960042</v>
       </c>
       <c r="M40" t="n">
-        <v>1155.367697237632</v>
+        <v>834.2525509827976</v>
       </c>
       <c r="N40" t="n">
-        <v>1315.336568651599</v>
+        <v>928.1651249726416</v>
       </c>
       <c r="O40" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649936</v>
       </c>
       <c r="P40" t="n">
-        <v>1768.392458898499</v>
+        <v>1642.11849869266</v>
       </c>
       <c r="Q40" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="R40" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S40" t="n">
-        <v>1745.279268752169</v>
+        <v>1617.518699191835</v>
       </c>
       <c r="T40" t="n">
-        <v>1745.279268752169</v>
+        <v>1382.103837451296</v>
       </c>
       <c r="U40" t="n">
-        <v>1462.533894199776</v>
+        <v>1117.914517176592</v>
       </c>
       <c r="V40" t="n">
-        <v>1342.053856746504</v>
+        <v>1117.914517176592</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.984192255378</v>
+        <v>1117.914517176592</v>
       </c>
       <c r="X40" t="n">
-        <v>1062.984192255378</v>
+        <v>879.5706550362754</v>
       </c>
       <c r="Y40" t="n">
-        <v>838.2484936441431</v>
+        <v>879.5706550362754</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>532.9931541220078</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="C41" t="n">
-        <v>122.8685634352779</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="D41" t="n">
-        <v>122.8685634352779</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="E41" t="n">
-        <v>122.8685634352779</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="F41" t="n">
-        <v>38.93954424562315</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G41" t="n">
-        <v>38.93954424562315</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H41" t="n">
-        <v>38.93954424562315</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I41" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689895</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446585</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M41" t="n">
-        <v>841.1329596152973</v>
+        <v>841.132959615297</v>
       </c>
       <c r="N41" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O41" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P41" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q41" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R41" t="n">
         <v>1787.049525288419</v>
@@ -7441,22 +7441,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T41" t="n">
-        <v>1574.284793965926</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U41" t="n">
-        <v>1317.396852817887</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.396852817887</v>
+        <v>1556.004081260138</v>
       </c>
       <c r="W41" t="n">
-        <v>933.6365519530552</v>
+        <v>1556.004081260138</v>
       </c>
       <c r="X41" t="n">
-        <v>532.9931541220078</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="Y41" t="n">
-        <v>532.9931541220078</v>
+        <v>1155.360683429091</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>445.5543329492906</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C42" t="n">
-        <v>445.5543329492906</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D42" t="n">
-        <v>328.657175168683</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E42" t="n">
         <v>310.1386249249689</v>
@@ -7481,61 +7481,61 @@
         <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H42" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I42" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J42" t="n">
-        <v>91.74661827365902</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K42" t="n">
-        <v>534.0413757825428</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L42" t="n">
-        <v>724.0737373228651</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M42" t="n">
-        <v>953.6720716027556</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N42" t="n">
-        <v>1195.182691790747</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O42" t="n">
-        <v>1407.118709277814</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P42" t="n">
-        <v>1569.386156092012</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q42" t="n">
-        <v>1775.234255540019</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R42" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.530002352792</v>
+        <v>1370.787812360838</v>
       </c>
       <c r="V42" t="n">
-        <v>1134.818475345826</v>
+        <v>1370.787812360838</v>
       </c>
       <c r="W42" t="n">
-        <v>921.5853070821544</v>
+        <v>1157.554644097167</v>
       </c>
       <c r="X42" t="n">
-        <v>745.2593252210472</v>
+        <v>981.2286622360594</v>
       </c>
       <c r="Y42" t="n">
-        <v>585.8573655848772</v>
+        <v>821.8267025998895</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.1270071071208</v>
+        <v>460.367837036588</v>
       </c>
       <c r="C43" t="n">
-        <v>749.0336346688373</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="D43" t="n">
-        <v>589.5389899917473</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6281748600668</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="F43" t="n">
-        <v>263.9970489706581</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G43" t="n">
-        <v>263.9970489706581</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H43" t="n">
         <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K43" t="n">
-        <v>175.3063357648813</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L43" t="n">
-        <v>325.2091976072529</v>
+        <v>197.201857015816</v>
       </c>
       <c r="M43" t="n">
-        <v>763.1157330083317</v>
+        <v>635.1083924168948</v>
       </c>
       <c r="N43" t="n">
-        <v>1189.062608445761</v>
+        <v>1061.055267854324</v>
       </c>
       <c r="O43" t="n">
-        <v>1582.654029123055</v>
+        <v>1454.646688531619</v>
       </c>
       <c r="P43" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q43" t="n">
         <v>1787.049525288419</v>
@@ -7596,25 +7596,25 @@
         <v>1745.279268752169</v>
       </c>
       <c r="S43" t="n">
-        <v>1745.279268752169</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="T43" t="n">
-        <v>1509.86440701163</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="U43" t="n">
-        <v>1227.119032459236</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="V43" t="n">
-        <v>953.2332873987584</v>
+        <v>1066.447835854569</v>
       </c>
       <c r="W43" t="n">
-        <v>920.1270071071208</v>
+        <v>787.3781713634435</v>
       </c>
       <c r="X43" t="n">
-        <v>920.1270071071208</v>
+        <v>549.0343092231269</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.1270071071208</v>
+        <v>549.0343092231269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1138.316121914813</v>
+        <v>1275.575547942124</v>
       </c>
       <c r="C44" t="n">
-        <v>728.1915312280831</v>
+        <v>1275.575547942124</v>
       </c>
       <c r="D44" t="n">
-        <v>728.1915312280831</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="E44" t="n">
-        <v>313.8513157449798</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F44" t="n">
-        <v>313.8513157449798</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G44" t="n">
-        <v>38.93954424562314</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H44" t="n">
-        <v>38.93954424562314</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
@@ -7654,7 +7654,7 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064783</v>
       </c>
       <c r="M44" t="n">
         <v>841.1329596152972</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S44" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T44" t="n">
-        <v>1488.153676578332</v>
+        <v>1625.413102605643</v>
       </c>
       <c r="U44" t="n">
-        <v>1488.153676578332</v>
+        <v>1625.413102605643</v>
       </c>
       <c r="V44" t="n">
-        <v>1138.316121914813</v>
+        <v>1275.575547942124</v>
       </c>
       <c r="W44" t="n">
-        <v>1138.316121914813</v>
+        <v>1275.575547942124</v>
       </c>
       <c r="X44" t="n">
-        <v>1138.316121914813</v>
+        <v>1275.575547942124</v>
       </c>
       <c r="Y44" t="n">
-        <v>1138.316121914813</v>
+        <v>1275.575547942124</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>600.2446305921857</v>
+        <v>532.1086706583156</v>
       </c>
       <c r="C45" t="n">
-        <v>466.2495593411314</v>
+        <v>398.1135994072613</v>
       </c>
       <c r="D45" t="n">
-        <v>349.3524015605238</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E45" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F45" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G45" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H45" t="n">
         <v>35.74099050576837</v>
@@ -7730,22 +7730,22 @@
         <v>91.74661827365901</v>
       </c>
       <c r="K45" t="n">
-        <v>219.1218605877237</v>
+        <v>534.0413757825427</v>
       </c>
       <c r="L45" t="n">
-        <v>409.1542221280459</v>
+        <v>724.0737373228649</v>
       </c>
       <c r="M45" t="n">
-        <v>638.7525564079365</v>
+        <v>953.6720716027554</v>
       </c>
       <c r="N45" t="n">
-        <v>880.2631765959275</v>
+        <v>1195.182691790746</v>
       </c>
       <c r="O45" t="n">
-        <v>1322.557934104811</v>
+        <v>1407.118709277814</v>
       </c>
       <c r="P45" t="n">
-        <v>1484.825380919009</v>
+        <v>1569.386156092012</v>
       </c>
       <c r="Q45" t="n">
         <v>1775.234255540018</v>
@@ -7754,25 +7754,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T45" t="n">
-        <v>1700.495187579393</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U45" t="n">
-        <v>1503.220299995687</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V45" t="n">
-        <v>1289.508772988721</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W45" t="n">
-        <v>1076.27560472505</v>
+        <v>1008.139644791179</v>
       </c>
       <c r="X45" t="n">
-        <v>899.9496228639423</v>
+        <v>831.8136629300723</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5476632277723</v>
+        <v>672.4117032939023</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>424.9078641023386</v>
+        <v>641.448721505649</v>
       </c>
       <c r="C46" t="n">
-        <v>424.9078641023386</v>
+        <v>641.448721505649</v>
       </c>
       <c r="D46" t="n">
-        <v>424.9078641023386</v>
+        <v>481.954076828559</v>
       </c>
       <c r="E46" t="n">
-        <v>263.9970489706581</v>
+        <v>321.0432616968785</v>
       </c>
       <c r="F46" t="n">
-        <v>263.9970489706581</v>
+        <v>321.0432616968785</v>
       </c>
       <c r="G46" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K46" t="n">
-        <v>175.3063357648813</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L46" t="n">
-        <v>325.2091976072524</v>
+        <v>717.4611618365532</v>
       </c>
       <c r="M46" t="n">
-        <v>763.1157330083313</v>
+        <v>810.4013477233466</v>
       </c>
       <c r="N46" t="n">
-        <v>1189.062608445761</v>
+        <v>1236.348223160776</v>
       </c>
       <c r="O46" t="n">
-        <v>1582.654029123055</v>
+        <v>1629.93964383807</v>
       </c>
       <c r="P46" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q46" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S46" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T46" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U46" t="n">
-        <v>1057.588206362653</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V46" t="n">
-        <v>1057.588206362653</v>
+        <v>1108.218092390819</v>
       </c>
       <c r="W46" t="n">
-        <v>887.9874248538904</v>
+        <v>829.1484278996934</v>
       </c>
       <c r="X46" t="n">
-        <v>649.6435627135738</v>
+        <v>829.1484278996934</v>
       </c>
       <c r="Y46" t="n">
-        <v>424.9078641023386</v>
+        <v>829.1484278996934</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>318.1005203988071</v>
+        <v>101.8942200099484</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11.12865569063555</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>331.2788819136456</v>
       </c>
       <c r="N13" t="n">
-        <v>55.79011084687714</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>83.09947510496468</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>232.6855959816326</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>115.3383250127934</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9087,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>201.1557157231351</v>
+        <v>311.0492165645766</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4303436925689255</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>214.8448719484778</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>202.8122599200935</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
@@ -9333,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>294.3474681006735</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>14.1282645045308</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>254.8105009783449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.0717194877797</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>191.773467682514</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.065589689682575</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>315.0067604209502</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.361506882507257</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9801,13 +9801,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>244.2074243049526</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>262.4449901762273</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>243.3246578349795</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10035,13 +10035,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>244.2074243049526</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>157.5111761007947</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10272,10 +10272,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>166.011909805891</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>301.9952666415287</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>110.0744140796687</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>382.3532307136163</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>196.7870471142712</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2271134515645</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0699605460302</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>202.8122599200935</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>190.7525194816453</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>11.55455306739108</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>256.8497987851233</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-2.941324661462082e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>171.9577745766613</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>202.8122599200938</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>215.2752156410474</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>24.09212450449593</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
@@ -10989,19 +10989,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>66.7235327516387</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>318.1005203988071</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.7817000673178</v>
+        <v>171.9577745766627</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>63.64240096979844</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>256.8497987851244</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>318.100520398807</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>232.6855959816326</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>204.1966244844918</v>
+        <v>118.7817000673174</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>63.64240096979805</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>79.78620756648664</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
         <v>3.166568202456219</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6345548112336</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>359.008160693904</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>69.82626658917395</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>69.82626658917407</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>164.6200590018132</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.7160322610237</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>18.80061034133041</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>308.7034252368906</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,10 +23509,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>134.3645152282339</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.80170360505471</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.91519032756227</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23670,7 +23670,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
         <v>86.37808034979749</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.674666232434923</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>36.95158336505116</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>214.2539248821683</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
         <v>3.166568202456219</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>310.5401414618717</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>22.50880706382853</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>88.9151903275627</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>8.635664373228366</v>
       </c>
       <c r="H19" t="n">
         <v>139.5954175304433</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.068586231912</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23980,10 +23980,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>297.216650310409</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>285.9311321812619</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>32.68360445648204</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.73370364017779</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>59.04692160236598</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24138,10 +24138,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>128.5960334784656</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.0685862319116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>77.42639670912007</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T23" t="n">
         <v>210.6370840092685</v>
@@ -24265,13 +24265,13 @@
         <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>43.68853225222637</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>253.5923312730057</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>116.870925720328</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>288.0568065983648</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>88.61837317620439</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>67.85071282895488</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>217.5187596251554</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>385.0458939039316</v>
+        <v>208.4866776446223</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
         <v>210.6370840092685</v>
@@ -24742,10 +24742,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
         <v>86.37808034979749</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.14906451051215</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
-        <v>19.47637531247938</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>3.166568202456219</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>98.2745999997633</v>
       </c>
       <c r="V32" t="n">
-        <v>52.95985075212286</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>44.5010167838491</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>32.83702293684637</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>355.2089852688928</v>
       </c>
       <c r="G35" t="n">
-        <v>50.76623082639304</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
         <v>210.6370840092685</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.451474777947396</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>88.91519032756403</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6200590018132</v>
@@ -25332,7 +25332,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>116.3903118226799</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.86706212029705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>253.3942858166891</v>
       </c>
       <c r="C38" t="n">
-        <v>331.1676018728633</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>22.50880706382939</v>
       </c>
       <c r="F39" t="n">
-        <v>75.80170360505377</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
         <v>86.37808034979749</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>18.37049373491294</v>
       </c>
       <c r="V40" t="n">
-        <v>151.8716505311343</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25639,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>333.7303789280911</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>117.6041895288868</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25709,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>100.9545231063183</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25763,10 +25763,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>22.03523190796631</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>98.04290186543039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>243.5037503574931</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3430339001588</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>50.61702555332056</v>
       </c>
       <c r="U44" t="n">
         <v>254.319061736559</v>
@@ -25949,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>88.91519032756293</v>
       </c>
       <c r="E45" t="n">
-        <v>80.46624897839595</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>21.76622805305749</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>108.374194152539</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414076.0672341358</v>
+        <v>414076.067234136</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>414076.0672341358</v>
+        <v>414076.067234136</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463790.9201997243</v>
+        <v>463790.9201997244</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>414076.067234136</v>
+        <v>414076.0672341356</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414076.0672341359</v>
+        <v>414076.0672341358</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>437406.5460677003</v>
+        <v>437406.5460677004</v>
       </c>
       <c r="C2" t="n">
-        <v>437406.5460677003</v>
+        <v>437406.5460677004</v>
       </c>
       <c r="D2" t="n">
         <v>437406.5460677004</v>
       </c>
       <c r="E2" t="n">
+        <v>248515.3402497944</v>
+      </c>
+      <c r="F2" t="n">
+        <v>248515.3402497945</v>
+      </c>
+      <c r="G2" t="n">
+        <v>248515.3402497944</v>
+      </c>
+      <c r="H2" t="n">
+        <v>248515.3402497944</v>
+      </c>
+      <c r="I2" t="n">
+        <v>271537.5706309956</v>
+      </c>
+      <c r="J2" t="n">
+        <v>271537.5706309957</v>
+      </c>
+      <c r="K2" t="n">
+        <v>271537.5706309957</v>
+      </c>
+      <c r="L2" t="n">
+        <v>271537.5706309955</v>
+      </c>
+      <c r="M2" t="n">
+        <v>248515.3402497941</v>
+      </c>
+      <c r="N2" t="n">
         <v>248515.3402497943</v>
       </c>
-      <c r="F2" t="n">
-        <v>248515.3402497944</v>
-      </c>
-      <c r="G2" t="n">
-        <v>248515.3402497942</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>248515.3402497943</v>
-      </c>
-      <c r="I2" t="n">
-        <v>271537.5706309957</v>
-      </c>
-      <c r="J2" t="n">
-        <v>271537.5706309956</v>
-      </c>
-      <c r="K2" t="n">
-        <v>271537.5706309956</v>
-      </c>
-      <c r="L2" t="n">
-        <v>271537.5706309956</v>
-      </c>
-      <c r="M2" t="n">
-        <v>248515.3402497943</v>
-      </c>
-      <c r="N2" t="n">
-        <v>248515.3402497944</v>
-      </c>
-      <c r="O2" t="n">
-        <v>248515.3402497944</v>
       </c>
       <c r="P2" t="n">
         <v>248515.3402497943</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723705</v>
+        <v>16007.44950723702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685868</v>
+        <v>96333.82383685865</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>18679.7878825621</v>
       </c>
       <c r="F4" t="n">
+        <v>18679.7878825621</v>
+      </c>
+      <c r="G4" t="n">
         <v>18679.78788256209</v>
       </c>
-      <c r="G4" t="n">
-        <v>18679.78788256208</v>
-      </c>
       <c r="H4" t="n">
-        <v>18679.78788256209</v>
+        <v>18679.7878825621</v>
       </c>
       <c r="I4" t="n">
-        <v>31781.80655567143</v>
+        <v>31781.80655567142</v>
       </c>
       <c r="J4" t="n">
         <v>31781.80655567142</v>
       </c>
       <c r="K4" t="n">
-        <v>31781.80655567141</v>
+        <v>31781.80655567143</v>
       </c>
       <c r="L4" t="n">
-        <v>31781.80655567143</v>
+        <v>31781.80655567142</v>
       </c>
       <c r="M4" t="n">
-        <v>18679.78788256205</v>
+        <v>18679.78788256202</v>
       </c>
       <c r="N4" t="n">
-        <v>18679.7878825621</v>
+        <v>18679.78788256202</v>
       </c>
       <c r="O4" t="n">
-        <v>18679.7878825621</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="P4" t="n">
         <v>18679.78788256209</v>
@@ -26481,13 +26481,13 @@
         <v>38742.42450886575</v>
       </c>
       <c r="F5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,13 +26502,13 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
+        <v>38742.42450886572</v>
+      </c>
+      <c r="N5" t="n">
+        <v>38742.42450886572</v>
+      </c>
+      <c r="O5" t="n">
         <v>38742.42450886573</v>
-      </c>
-      <c r="N5" t="n">
-        <v>38742.42450886575</v>
-      </c>
-      <c r="O5" t="n">
-        <v>38742.42450886575</v>
       </c>
       <c r="P5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52906.64206204348</v>
+        <v>52897.84237641413</v>
       </c>
       <c r="C6" t="n">
-        <v>52906.64206204342</v>
+        <v>52897.84237641413</v>
       </c>
       <c r="D6" t="n">
-        <v>52906.64206204354</v>
+        <v>52897.84237641419</v>
       </c>
       <c r="E6" t="n">
-        <v>-369035.2281046777</v>
+        <v>-369743.6248488919</v>
       </c>
       <c r="F6" t="n">
-        <v>191093.1278583666</v>
+        <v>190384.7311141524</v>
       </c>
       <c r="G6" t="n">
-        <v>191093.1278583664</v>
+        <v>190384.7311141524</v>
       </c>
       <c r="H6" t="n">
-        <v>191093.1278583665</v>
+        <v>190384.7311141523</v>
       </c>
       <c r="I6" t="n">
-        <v>181345.9574851111</v>
+        <v>180722.8282608272</v>
       </c>
       <c r="J6" t="n">
-        <v>197353.406992348</v>
+        <v>196730.2777680643</v>
       </c>
       <c r="K6" t="n">
-        <v>197353.406992348</v>
+        <v>196730.2777680642</v>
       </c>
       <c r="L6" t="n">
-        <v>197353.406992348</v>
+        <v>196730.2777680641</v>
       </c>
       <c r="M6" t="n">
-        <v>94759.30402150788</v>
+        <v>94050.90727729352</v>
       </c>
       <c r="N6" t="n">
-        <v>191093.1278583665</v>
+        <v>190384.7311141523</v>
       </c>
       <c r="O6" t="n">
-        <v>191093.1278583666</v>
+        <v>190384.7311141523</v>
       </c>
       <c r="P6" t="n">
-        <v>191093.1278583665</v>
+        <v>190384.7311141522</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="G3" t="n">
         <v>531.1592534165951</v>
@@ -26801,34 +26801,34 @@
         <v>446.7623813221048</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="J4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="K4" t="n">
         <v>506.9586407647101</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221044</v>
       </c>
       <c r="O4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="P4" t="n">
         <v>446.7623813221047</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260534</v>
+        <v>60.19625944260522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.566121879499</v>
+        <v>386.5661218794989</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,10 +31995,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I14" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J14" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K14" t="n">
         <v>271.6198950021757</v>
@@ -32007,31 +32007,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N14" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O14" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P14" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R14" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S14" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T14" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H15" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I15" t="n">
         <v>39.33585037094596</v>
@@ -32080,37 +32080,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K15" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L15" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M15" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N15" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O15" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P15" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q15" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R15" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S15" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T15" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H16" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I16" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J16" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K16" t="n">
         <v>111.2822173551489</v>
@@ -32177,19 +32177,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R16" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S16" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T16" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
-        <v>446.7623813221048</v>
+        <v>230.5560809332461</v>
       </c>
       <c r="L12" t="n">
         <v>191.9518803437599</v>
@@ -35500,7 +35500,7 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>255.0787770926466</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O12" t="n">
         <v>214.076785340472</v>
@@ -35573,19 +35573,19 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>425.1578575568712</v>
       </c>
       <c r="N13" t="n">
-        <v>150.6512966952044</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P13" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q13" t="n">
         <v>18.8455216059803</v>
@@ -35649,19 +35649,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K14" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L14" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M14" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N14" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O14" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P14" t="n">
         <v>213.4113988914702</v>
@@ -35670,7 +35670,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R14" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
-        <v>128.6618609232976</v>
+        <v>211.7613360282623</v>
       </c>
       <c r="L15" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N15" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O15" t="n">
-        <v>446.7623813221046</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P15" t="n">
-        <v>279.2448369463266</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248754</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R15" t="n">
         <v>100.7929153791732</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.28530536328817</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K16" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L16" t="n">
-        <v>288.9303469173483</v>
+        <v>398.8238477587897</v>
       </c>
       <c r="M16" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N16" t="n">
-        <v>94.86118584832725</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O16" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P16" t="n">
         <v>323.5979323663882</v>
@@ -35895,7 +35895,7 @@
         <v>281.6521564735544</v>
       </c>
       <c r="N17" t="n">
-        <v>288.097049887628</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O17" t="n">
         <v>266.5865405916856</v>
@@ -35962,19 +35962,19 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
-        <v>129.0922046158666</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L18" t="n">
         <v>191.9518803437599</v>
       </c>
       <c r="M18" t="n">
-        <v>446.7623813221046</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N18" t="n">
-        <v>446.7623813221046</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O18" t="n">
         <v>214.076785340472</v>
@@ -35983,10 +35983,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R18" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K19" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
         <v>404.9252486033274</v>
@@ -36053,13 +36053,13 @@
         <v>93.87897564322566</v>
       </c>
       <c r="N19" t="n">
-        <v>389.2086539490008</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O19" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>74.19338528191089</v>
       </c>
       <c r="Q19" t="n">
         <v>18.8455216059803</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L21" t="n">
-        <v>446.7623813221047</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M21" t="n">
         <v>231.9175093736268</v>
@@ -36220,10 +36220,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.2173926002673</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R21" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36290,16 +36290,16 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N22" t="n">
-        <v>286.6346535308413</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O22" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
-        <v>60.06512077738009</v>
+        <v>61.13071046706267</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,10 +36375,10 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P23" t="n">
-        <v>213.4113988914702</v>
+        <v>451.7642645632003</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.9089058048045</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R23" t="n">
         <v>46.82024895384008</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L24" t="n">
-        <v>506.9586407647101</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M24" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N24" t="n">
-        <v>506.9586407647101</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O24" t="n">
         <v>214.076785340472</v>
@@ -36457,7 +36457,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.50717999499483</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R24" t="n">
         <v>100.7929153791732</v>
@@ -36521,13 +36521,13 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L25" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
-        <v>338.0863999481783</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N25" t="n">
-        <v>430.2493691287167</v>
+        <v>357.3061760245546</v>
       </c>
       <c r="O25" t="n">
         <v>397.5670915932262</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289586</v>
@@ -36615,7 +36615,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q26" t="n">
-        <v>378.9089058048045</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R26" t="n">
         <v>46.82024895384008</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232977</v>
@@ -36691,10 +36691,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>332.4703309474671</v>
+        <v>410.598013889182</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36755,13 +36755,13 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L28" t="n">
-        <v>331.9820554991658</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N28" t="n">
         <v>430.2493691287167</v>
@@ -36770,10 +36770,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>323.5979323663882</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289586</v>
@@ -36846,7 +36846,7 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O29" t="n">
-        <v>504.9394062634157</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P29" t="n">
         <v>213.4113988914702</v>
@@ -36910,7 +36910,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
         <v>128.6618609232977</v>
@@ -36922,7 +36922,7 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N30" t="n">
-        <v>401.4612975028058</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
         <v>214.076785340472</v>
@@ -36931,7 +36931,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>499.2165387728651</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36992,10 +36992,10 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
-        <v>225.0437576019731</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L31" t="n">
-        <v>87.77463119421319</v>
+        <v>389.7698978357419</v>
       </c>
       <c r="M31" t="n">
         <v>442.3298337384635</v>
@@ -37007,10 +37007,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K32" t="n">
         <v>182.4835053289586</v>
@@ -37077,7 +37077,7 @@
         <v>241.4830999614339</v>
       </c>
       <c r="M32" t="n">
-        <v>391.726570553223</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N32" t="n">
         <v>288.0970498876284</v>
@@ -37092,7 +37092,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>175.0987005459018</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
@@ -37162,16 +37162,16 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>471.4989038261039</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R33" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K34" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L34" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M34" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N34" t="n">
-        <v>430.2493691287167</v>
+        <v>291.6482329625985</v>
       </c>
       <c r="O34" t="n">
-        <v>184.5368722985883</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
         <v>323.5979323663882</v>
@@ -37317,10 +37317,10 @@
         <v>281.6521564735544</v>
       </c>
       <c r="N35" t="n">
-        <v>288.0970498876275</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O35" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916844</v>
       </c>
       <c r="P35" t="n">
         <v>213.4113988914702</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>290.6413017257178</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232977</v>
@@ -37396,7 +37396,7 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N36" t="n">
-        <v>446.7623813221045</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O36" t="n">
         <v>214.076785340472</v>
@@ -37405,7 +37405,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.14567311248757</v>
+        <v>279.8981925941329</v>
       </c>
       <c r="R36" t="n">
         <v>11.934615907475</v>
@@ -37469,19 +37469,19 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N37" t="n">
-        <v>106.4157389157184</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O37" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P37" t="n">
-        <v>323.5979323663882</v>
+        <v>316.9149195625034</v>
       </c>
       <c r="Q37" t="n">
         <v>18.8455216059803</v>
@@ -37545,7 +37545,7 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K38" t="n">
-        <v>182.4835053289586</v>
+        <v>182.4835053289574</v>
       </c>
       <c r="L38" t="n">
         <v>241.4830999614339</v>
@@ -37621,10 +37621,10 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
-        <v>128.6618609232977</v>
+        <v>300.6196354999589</v>
       </c>
       <c r="L39" t="n">
         <v>191.9518803437599</v>
@@ -37633,13 +37633,13 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7623813221048</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O39" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P39" t="n">
-        <v>379.1817275745806</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
         <v>89.14567311248757</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.28530536328818</v>
+        <v>40.37742986778411</v>
       </c>
       <c r="K40" t="n">
         <v>267.3956797008439</v>
@@ -37709,19 +37709,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M40" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N40" t="n">
-        <v>161.584718599966</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O40" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608294</v>
       </c>
       <c r="K41" t="n">
         <v>182.4835053289586</v>
@@ -37791,7 +37791,7 @@
         <v>281.6521564735544</v>
       </c>
       <c r="N41" t="n">
-        <v>288.0970498876289</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O41" t="n">
         <v>266.5865405916856</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>446.7623813221048</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437599</v>
@@ -37879,7 +37879,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>207.9273731798054</v>
+        <v>261.1034476891502</v>
       </c>
       <c r="R42" t="n">
         <v>11.934615907475</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K43" t="n">
         <v>59.03184779608208</v>
       </c>
       <c r="L43" t="n">
-        <v>151.4170321640116</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M43" t="n">
         <v>442.3298337384635</v>
@@ -37955,10 +37955,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>60.06512077738009</v>
+        <v>316.9149195625045</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>56.57134117968751</v>
       </c>
       <c r="K45" t="n">
-        <v>128.6618609232977</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="L45" t="n">
         <v>191.9518803437599</v>
@@ -38110,13 +38110,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O45" t="n">
-        <v>446.7623813221047</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P45" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>293.3422975969793</v>
+        <v>207.927373179805</v>
       </c>
       <c r="R45" t="n">
         <v>11.934615907475</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K46" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L46" t="n">
-        <v>151.4170321640112</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N46" t="n">
         <v>430.2493691287167</v>
@@ -38192,10 +38192,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>60.06512077738009</v>
+        <v>139.8513283438667</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
